--- a/biology/Zoologie/Hottentotta_saulcyi/Hottentotta_saulcyi.xlsx
+++ b/biology/Zoologie/Hottentotta_saulcyi/Hottentotta_saulcyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hottentotta saulcyi est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Irak, en Iran, en Afghanistan et en Turquie[1],[2].
-Sa présence en Syrie est incertaine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Irak, en Iran, en Afghanistan et en Turquie,.
+Sa présence en Syrie est incertaine.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tronc de l'holotype mesure 36 mm de long sur 13 mm et la queue 57 mm[3].
-Hottentotta saulcyi mesure de 75 à 120 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tronc de l'holotype mesure 36 mm de long sur 13 mm et la queue 57 mm.
+Hottentotta saulcyi mesure de 75 à 120 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus saulcyi par Simon en 1880. Elle est placée dans le genre Buthotus par Vachon en 1949[4] puis dans le genre Hottentotta par Francke en 1985[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus saulcyi par Simon en 1880. Elle est placée dans le genre Buthotus par Vachon en 1949 puis dans le genre Hottentotta par Francke en 1985.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Félicien de Saulcy[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Félicien de Saulcy.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1880 : « Études Arachnologiques 12e Mémoire. Part XVIII. Descriptions de genres et espèces de l'ordre des Scorpiones. » Annales de la Société Entomologique de France, sér. 5, vol. 10, p. 377–398 (texte intégral).</t>
         </is>
